--- a/po_analysis_by_asin/B0B94TKRVP_po_data.xlsx
+++ b/po_analysis_by_asin/B0B94TKRVP_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,23 +452,23 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>6</v>
@@ -476,201 +476,289 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45313</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45320</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45327</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>51</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45334</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45341</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45362</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45369</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45376</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45383</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>112</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45453</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45481</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45495</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45509</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45523</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45530</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45537</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45558</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45565</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45572</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>64</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45579</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>38</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45593</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45600</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45607</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45628</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45635</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B40" t="n">
         <v>40</v>
       </c>
     </row>
@@ -685,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -707,89 +795,129 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>75</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>78</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>112</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45444</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>18</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45474</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45505</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45536</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45566</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>134</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45597</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45627</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B12" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45626.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45657.99999999999</v>
+      </c>
+      <c r="B17" t="n">
         <v>60</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0B94TKRVP_po_data.xlsx
+++ b/po_analysis_by_asin/B0B94TKRVP_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -789,7 +790,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -919,6 +920,705 @@
       </c>
       <c r="B17" t="n">
         <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-12.8019972985016</v>
+      </c>
+      <c r="D2" t="n">
+        <v>40.51178793944925</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-10.51339748316738</v>
+      </c>
+      <c r="D3" t="n">
+        <v>43.01436179220958</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>16</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-9.026793995370337</v>
+      </c>
+      <c r="D4" t="n">
+        <v>44.85927416262278</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>17</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-12.4489511328863</v>
+      </c>
+      <c r="D5" t="n">
+        <v>41.89377118570111</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>17</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-9.407824150684984</v>
+      </c>
+      <c r="D6" t="n">
+        <v>43.40862964692814</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>17</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-6.91145192835616</v>
+      </c>
+      <c r="D7" t="n">
+        <v>43.9408981855724</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>17</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-9.725520258940648</v>
+      </c>
+      <c r="D8" t="n">
+        <v>45.60024379568765</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>17</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-9.122997814533157</v>
+      </c>
+      <c r="D9" t="n">
+        <v>43.70318303844179</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>17</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-9.231592475285602</v>
+      </c>
+      <c r="D10" t="n">
+        <v>43.27783582815045</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>17</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-8.975565944087604</v>
+      </c>
+      <c r="D11" t="n">
+        <v>45.79508058489585</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>17</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-9.150895773420068</v>
+      </c>
+      <c r="D12" t="n">
+        <v>45.37621862838557</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>18</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-8.276864047119416</v>
+      </c>
+      <c r="D13" t="n">
+        <v>45.68866739355133</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>18</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-9.989046147841666</v>
+      </c>
+      <c r="D14" t="n">
+        <v>45.42589274809381</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>18</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-6.313657724685341</v>
+      </c>
+      <c r="D15" t="n">
+        <v>43.83601231209287</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>18</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-9.826074732853158</v>
+      </c>
+      <c r="D16" t="n">
+        <v>44.13179939035072</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>18</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-7.716730083134408</v>
+      </c>
+      <c r="D17" t="n">
+        <v>42.25824972973549</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>18</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-7.234709198552871</v>
+      </c>
+      <c r="D18" t="n">
+        <v>44.89567219160016</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-10.53927411687288</v>
+      </c>
+      <c r="D19" t="n">
+        <v>43.95928719288867</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-6.347598816854497</v>
+      </c>
+      <c r="D20" t="n">
+        <v>44.57288515878641</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-8.138931854762198</v>
+      </c>
+      <c r="D21" t="n">
+        <v>42.94501686131439</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>19</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-8.892652100888508</v>
+      </c>
+      <c r="D22" t="n">
+        <v>45.09850327696279</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>19</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-8.870304645070885</v>
+      </c>
+      <c r="D23" t="n">
+        <v>44.38036200356646</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>19</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-10.14360010038757</v>
+      </c>
+      <c r="D24" t="n">
+        <v>47.03730572421424</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>20</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-7.887166901103328</v>
+      </c>
+      <c r="D25" t="n">
+        <v>47.2137499059675</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>20</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-5.611636317132308</v>
+      </c>
+      <c r="D26" t="n">
+        <v>46.38547314684917</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>20</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-7.836082380333581</v>
+      </c>
+      <c r="D27" t="n">
+        <v>47.50767221510329</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>20</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-6.414617958449852</v>
+      </c>
+      <c r="D28" t="n">
+        <v>45.3928927420097</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>21</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-4.791590489282044</v>
+      </c>
+      <c r="D29" t="n">
+        <v>46.51022063133515</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>21</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-7.513700671142912</v>
+      </c>
+      <c r="D30" t="n">
+        <v>45.8950783058017</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>21</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-3.874596633828067</v>
+      </c>
+      <c r="D31" t="n">
+        <v>47.96231175107339</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>21</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-5.904012100434492</v>
+      </c>
+      <c r="D32" t="n">
+        <v>48.37455732044846</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>21</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-5.69401477161398</v>
+      </c>
+      <c r="D33" t="n">
+        <v>46.01242098534638</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>21</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-4.321644340204176</v>
+      </c>
+      <c r="D34" t="n">
+        <v>48.07639684146254</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>21</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-6.228396306028311</v>
+      </c>
+      <c r="D35" t="n">
+        <v>49.15257887902686</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>21</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-5.927859900639453</v>
+      </c>
+      <c r="D36" t="n">
+        <v>47.64905108807842</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>22</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-3.916277559764816</v>
+      </c>
+      <c r="D37" t="n">
+        <v>47.80561054687085</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>22</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-5.089388364330618</v>
+      </c>
+      <c r="D38" t="n">
+        <v>47.57689522108549</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>22</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-4.469199292301959</v>
+      </c>
+      <c r="D39" t="n">
+        <v>48.63527370030954</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>22</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-4.835941012707272</v>
+      </c>
+      <c r="D40" t="n">
+        <v>49.03932753446704</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>22</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-4.787526678838365</v>
+      </c>
+      <c r="D41" t="n">
+        <v>52.14595282052802</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>22</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-3.311634807586605</v>
+      </c>
+      <c r="D42" t="n">
+        <v>49.44355729508183</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>22</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-5.657587136832452</v>
+      </c>
+      <c r="D43" t="n">
+        <v>47.79158919347555</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>22</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-5.231663382021282</v>
+      </c>
+      <c r="D44" t="n">
+        <v>47.10467764435653</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>22</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-5.236396296141311</v>
+      </c>
+      <c r="D45" t="n">
+        <v>47.87534306298378</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>23</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-2.947996327649104</v>
+      </c>
+      <c r="D46" t="n">
+        <v>49.37468717924876</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45690.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>23</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-3.384259545474634</v>
+      </c>
+      <c r="D47" t="n">
+        <v>50.24207768522551</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45697.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>23</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-3.116189779826009</v>
+      </c>
+      <c r="D48" t="n">
+        <v>49.34897734233932</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0B94TKRVP_po_data.xlsx
+++ b/po_analysis_by_asin/B0B94TKRVP_po_data.xlsx
@@ -933,7 +933,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -952,16 +952,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -970,12 +960,6 @@
       <c r="B2" t="n">
         <v>16</v>
       </c>
-      <c r="C2" t="n">
-        <v>-12.8019972985016</v>
-      </c>
-      <c r="D2" t="n">
-        <v>40.51178793944925</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -984,12 +968,6 @@
       <c r="B3" t="n">
         <v>16</v>
       </c>
-      <c r="C3" t="n">
-        <v>-10.51339748316738</v>
-      </c>
-      <c r="D3" t="n">
-        <v>43.01436179220958</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -998,12 +976,6 @@
       <c r="B4" t="n">
         <v>16</v>
       </c>
-      <c r="C4" t="n">
-        <v>-9.026793995370337</v>
-      </c>
-      <c r="D4" t="n">
-        <v>44.85927416262278</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1012,12 +984,6 @@
       <c r="B5" t="n">
         <v>17</v>
       </c>
-      <c r="C5" t="n">
-        <v>-12.4489511328863</v>
-      </c>
-      <c r="D5" t="n">
-        <v>41.89377118570111</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1026,12 +992,6 @@
       <c r="B6" t="n">
         <v>17</v>
       </c>
-      <c r="C6" t="n">
-        <v>-9.407824150684984</v>
-      </c>
-      <c r="D6" t="n">
-        <v>43.40862964692814</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1040,12 +1000,6 @@
       <c r="B7" t="n">
         <v>17</v>
       </c>
-      <c r="C7" t="n">
-        <v>-6.91145192835616</v>
-      </c>
-      <c r="D7" t="n">
-        <v>43.9408981855724</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1054,12 +1008,6 @@
       <c r="B8" t="n">
         <v>17</v>
       </c>
-      <c r="C8" t="n">
-        <v>-9.725520258940648</v>
-      </c>
-      <c r="D8" t="n">
-        <v>45.60024379568765</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1068,12 +1016,6 @@
       <c r="B9" t="n">
         <v>17</v>
       </c>
-      <c r="C9" t="n">
-        <v>-9.122997814533157</v>
-      </c>
-      <c r="D9" t="n">
-        <v>43.70318303844179</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1082,12 +1024,6 @@
       <c r="B10" t="n">
         <v>17</v>
       </c>
-      <c r="C10" t="n">
-        <v>-9.231592475285602</v>
-      </c>
-      <c r="D10" t="n">
-        <v>43.27783582815045</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1096,12 +1032,6 @@
       <c r="B11" t="n">
         <v>17</v>
       </c>
-      <c r="C11" t="n">
-        <v>-8.975565944087604</v>
-      </c>
-      <c r="D11" t="n">
-        <v>45.79508058489585</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1110,12 +1040,6 @@
       <c r="B12" t="n">
         <v>17</v>
       </c>
-      <c r="C12" t="n">
-        <v>-9.150895773420068</v>
-      </c>
-      <c r="D12" t="n">
-        <v>45.37621862838557</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1124,12 +1048,6 @@
       <c r="B13" t="n">
         <v>18</v>
       </c>
-      <c r="C13" t="n">
-        <v>-8.276864047119416</v>
-      </c>
-      <c r="D13" t="n">
-        <v>45.68866739355133</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1138,12 +1056,6 @@
       <c r="B14" t="n">
         <v>18</v>
       </c>
-      <c r="C14" t="n">
-        <v>-9.989046147841666</v>
-      </c>
-      <c r="D14" t="n">
-        <v>45.42589274809381</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1152,12 +1064,6 @@
       <c r="B15" t="n">
         <v>18</v>
       </c>
-      <c r="C15" t="n">
-        <v>-6.313657724685341</v>
-      </c>
-      <c r="D15" t="n">
-        <v>43.83601231209287</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1166,12 +1072,6 @@
       <c r="B16" t="n">
         <v>18</v>
       </c>
-      <c r="C16" t="n">
-        <v>-9.826074732853158</v>
-      </c>
-      <c r="D16" t="n">
-        <v>44.13179939035072</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1180,12 +1080,6 @@
       <c r="B17" t="n">
         <v>18</v>
       </c>
-      <c r="C17" t="n">
-        <v>-7.716730083134408</v>
-      </c>
-      <c r="D17" t="n">
-        <v>42.25824972973549</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1194,12 +1088,6 @@
       <c r="B18" t="n">
         <v>18</v>
       </c>
-      <c r="C18" t="n">
-        <v>-7.234709198552871</v>
-      </c>
-      <c r="D18" t="n">
-        <v>44.89567219160016</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1208,12 +1096,6 @@
       <c r="B19" t="n">
         <v>18</v>
       </c>
-      <c r="C19" t="n">
-        <v>-10.53927411687288</v>
-      </c>
-      <c r="D19" t="n">
-        <v>43.95928719288867</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1222,12 +1104,6 @@
       <c r="B20" t="n">
         <v>18</v>
       </c>
-      <c r="C20" t="n">
-        <v>-6.347598816854497</v>
-      </c>
-      <c r="D20" t="n">
-        <v>44.57288515878641</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1236,12 +1112,6 @@
       <c r="B21" t="n">
         <v>19</v>
       </c>
-      <c r="C21" t="n">
-        <v>-8.138931854762198</v>
-      </c>
-      <c r="D21" t="n">
-        <v>42.94501686131439</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1250,12 +1120,6 @@
       <c r="B22" t="n">
         <v>19</v>
       </c>
-      <c r="C22" t="n">
-        <v>-8.892652100888508</v>
-      </c>
-      <c r="D22" t="n">
-        <v>45.09850327696279</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1264,12 +1128,6 @@
       <c r="B23" t="n">
         <v>19</v>
       </c>
-      <c r="C23" t="n">
-        <v>-8.870304645070885</v>
-      </c>
-      <c r="D23" t="n">
-        <v>44.38036200356646</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1278,12 +1136,6 @@
       <c r="B24" t="n">
         <v>19</v>
       </c>
-      <c r="C24" t="n">
-        <v>-10.14360010038757</v>
-      </c>
-      <c r="D24" t="n">
-        <v>47.03730572421424</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1292,12 +1144,6 @@
       <c r="B25" t="n">
         <v>20</v>
       </c>
-      <c r="C25" t="n">
-        <v>-7.887166901103328</v>
-      </c>
-      <c r="D25" t="n">
-        <v>47.2137499059675</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1306,12 +1152,6 @@
       <c r="B26" t="n">
         <v>20</v>
       </c>
-      <c r="C26" t="n">
-        <v>-5.611636317132308</v>
-      </c>
-      <c r="D26" t="n">
-        <v>46.38547314684917</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1320,12 +1160,6 @@
       <c r="B27" t="n">
         <v>20</v>
       </c>
-      <c r="C27" t="n">
-        <v>-7.836082380333581</v>
-      </c>
-      <c r="D27" t="n">
-        <v>47.50767221510329</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1334,12 +1168,6 @@
       <c r="B28" t="n">
         <v>20</v>
       </c>
-      <c r="C28" t="n">
-        <v>-6.414617958449852</v>
-      </c>
-      <c r="D28" t="n">
-        <v>45.3928927420097</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1348,12 +1176,6 @@
       <c r="B29" t="n">
         <v>21</v>
       </c>
-      <c r="C29" t="n">
-        <v>-4.791590489282044</v>
-      </c>
-      <c r="D29" t="n">
-        <v>46.51022063133515</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1362,12 +1184,6 @@
       <c r="B30" t="n">
         <v>21</v>
       </c>
-      <c r="C30" t="n">
-        <v>-7.513700671142912</v>
-      </c>
-      <c r="D30" t="n">
-        <v>45.8950783058017</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1376,12 +1192,6 @@
       <c r="B31" t="n">
         <v>21</v>
       </c>
-      <c r="C31" t="n">
-        <v>-3.874596633828067</v>
-      </c>
-      <c r="D31" t="n">
-        <v>47.96231175107339</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1390,12 +1200,6 @@
       <c r="B32" t="n">
         <v>21</v>
       </c>
-      <c r="C32" t="n">
-        <v>-5.904012100434492</v>
-      </c>
-      <c r="D32" t="n">
-        <v>48.37455732044846</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1404,12 +1208,6 @@
       <c r="B33" t="n">
         <v>21</v>
       </c>
-      <c r="C33" t="n">
-        <v>-5.69401477161398</v>
-      </c>
-      <c r="D33" t="n">
-        <v>46.01242098534638</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1418,12 +1216,6 @@
       <c r="B34" t="n">
         <v>21</v>
       </c>
-      <c r="C34" t="n">
-        <v>-4.321644340204176</v>
-      </c>
-      <c r="D34" t="n">
-        <v>48.07639684146254</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1432,12 +1224,6 @@
       <c r="B35" t="n">
         <v>21</v>
       </c>
-      <c r="C35" t="n">
-        <v>-6.228396306028311</v>
-      </c>
-      <c r="D35" t="n">
-        <v>49.15257887902686</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1446,12 +1232,6 @@
       <c r="B36" t="n">
         <v>21</v>
       </c>
-      <c r="C36" t="n">
-        <v>-5.927859900639453</v>
-      </c>
-      <c r="D36" t="n">
-        <v>47.64905108807842</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1460,12 +1240,6 @@
       <c r="B37" t="n">
         <v>22</v>
       </c>
-      <c r="C37" t="n">
-        <v>-3.916277559764816</v>
-      </c>
-      <c r="D37" t="n">
-        <v>47.80561054687085</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1474,12 +1248,6 @@
       <c r="B38" t="n">
         <v>22</v>
       </c>
-      <c r="C38" t="n">
-        <v>-5.089388364330618</v>
-      </c>
-      <c r="D38" t="n">
-        <v>47.57689522108549</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1488,12 +1256,6 @@
       <c r="B39" t="n">
         <v>22</v>
       </c>
-      <c r="C39" t="n">
-        <v>-4.469199292301959</v>
-      </c>
-      <c r="D39" t="n">
-        <v>48.63527370030954</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1502,12 +1264,6 @@
       <c r="B40" t="n">
         <v>22</v>
       </c>
-      <c r="C40" t="n">
-        <v>-4.835941012707272</v>
-      </c>
-      <c r="D40" t="n">
-        <v>49.03932753446704</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1516,12 +1272,6 @@
       <c r="B41" t="n">
         <v>22</v>
       </c>
-      <c r="C41" t="n">
-        <v>-4.787526678838365</v>
-      </c>
-      <c r="D41" t="n">
-        <v>52.14595282052802</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1530,12 +1280,6 @@
       <c r="B42" t="n">
         <v>22</v>
       </c>
-      <c r="C42" t="n">
-        <v>-3.311634807586605</v>
-      </c>
-      <c r="D42" t="n">
-        <v>49.44355729508183</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1544,12 +1288,6 @@
       <c r="B43" t="n">
         <v>22</v>
       </c>
-      <c r="C43" t="n">
-        <v>-5.657587136832452</v>
-      </c>
-      <c r="D43" t="n">
-        <v>47.79158919347555</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1558,12 +1296,6 @@
       <c r="B44" t="n">
         <v>22</v>
       </c>
-      <c r="C44" t="n">
-        <v>-5.231663382021282</v>
-      </c>
-      <c r="D44" t="n">
-        <v>47.10467764435653</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1572,12 +1304,6 @@
       <c r="B45" t="n">
         <v>22</v>
       </c>
-      <c r="C45" t="n">
-        <v>-5.236396296141311</v>
-      </c>
-      <c r="D45" t="n">
-        <v>47.87534306298378</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1586,12 +1312,6 @@
       <c r="B46" t="n">
         <v>23</v>
       </c>
-      <c r="C46" t="n">
-        <v>-2.947996327649104</v>
-      </c>
-      <c r="D46" t="n">
-        <v>49.37468717924876</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1600,12 +1320,6 @@
       <c r="B47" t="n">
         <v>23</v>
       </c>
-      <c r="C47" t="n">
-        <v>-3.384259545474634</v>
-      </c>
-      <c r="D47" t="n">
-        <v>50.24207768522551</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1613,12 +1327,6 @@
       </c>
       <c r="B48" t="n">
         <v>23</v>
-      </c>
-      <c r="C48" t="n">
-        <v>-3.116189779826009</v>
-      </c>
-      <c r="D48" t="n">
-        <v>49.34897734233932</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0B94TKRVP_po_data.xlsx
+++ b/po_analysis_by_asin/B0B94TKRVP_po_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -763,6 +763,38 @@
         <v>40</v>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -774,7 +806,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -922,6 +954,14 @@
         <v>60</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45688.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -933,7 +973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -958,7 +998,7 @@
         <v>45151.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -966,7 +1006,7 @@
         <v>45186.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -974,7 +1014,7 @@
         <v>45193.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -982,7 +1022,7 @@
         <v>45207.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -990,7 +1030,7 @@
         <v>45214.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -998,7 +1038,7 @@
         <v>45221.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -1006,7 +1046,7 @@
         <v>45228.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1014,7 +1054,7 @@
         <v>45235.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1022,7 +1062,7 @@
         <v>45242.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1030,7 +1070,7 @@
         <v>45270.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1038,7 +1078,7 @@
         <v>45277.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1110,7 +1150,7 @@
         <v>45368.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -1118,7 +1158,7 @@
         <v>45375.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -1126,7 +1166,7 @@
         <v>45382.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -1134,7 +1174,7 @@
         <v>45389.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
@@ -1142,7 +1182,7 @@
         <v>45459.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
@@ -1150,7 +1190,7 @@
         <v>45487.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
@@ -1158,7 +1198,7 @@
         <v>45501.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -1166,7 +1206,7 @@
         <v>45515.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
@@ -1174,7 +1214,7 @@
         <v>45529.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
@@ -1182,7 +1222,7 @@
         <v>45536.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
@@ -1190,7 +1230,7 @@
         <v>45543.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
@@ -1198,7 +1238,7 @@
         <v>45564.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33">
@@ -1206,7 +1246,7 @@
         <v>45571.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34">
@@ -1214,7 +1254,7 @@
         <v>45578.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35">
@@ -1222,7 +1262,7 @@
         <v>45585.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36">
@@ -1230,7 +1270,7 @@
         <v>45599.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37">
@@ -1238,7 +1278,7 @@
         <v>45606.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38">
@@ -1246,7 +1286,7 @@
         <v>45613.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39">
@@ -1254,7 +1294,7 @@
         <v>45634.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40">
@@ -1262,71 +1302,103 @@
         <v>45641.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45648.99999999999</v>
+        <v>45662.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45655.99999999999</v>
+        <v>45669.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45662.99999999999</v>
+        <v>45676.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45669.99999999999</v>
+        <v>45683.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45676.99999999999</v>
+        <v>45690.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45683.99999999999</v>
+        <v>45697.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45690.99999999999</v>
+        <v>45704.99999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45697.99999999999</v>
+        <v>45711.99999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>23</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45718.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45725.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45732.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45739.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
